--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\evelyn\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00BFCC9-2E18-4E04-8C0E-3AF873318E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB9D04-FEA2-4E5B-81A4-C71245C515E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="2160" windowWidth="22690" windowHeight="15670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="40" windowWidth="27620" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relationships" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Table Name</t>
   </si>
@@ -208,6 +208,78 @@
   </si>
   <si>
     <t>Orphaned</t>
+  </si>
+  <si>
+    <t>Many to Many</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Key </t>
+  </si>
+  <si>
+    <t>yearID, lgID, teamID</t>
+  </si>
+  <si>
+    <t>franchID</t>
+  </si>
+  <si>
+    <t>yearID, lgID, teamID, Half</t>
+  </si>
+  <si>
+    <t>None Defined</t>
+  </si>
+  <si>
+    <t>yearID, teamID, playerID</t>
+  </si>
+  <si>
+    <t>playerID, awardID, yearID, lgID</t>
+  </si>
+  <si>
+    <t>awardID, yearID, lgID, playerID</t>
+  </si>
+  <si>
+    <t>yearID, round, playerID</t>
+  </si>
+  <si>
+    <t>playerID, yearID, stint</t>
+  </si>
+  <si>
+    <t>playerID, yearID, round, POS</t>
+  </si>
+  <si>
+    <t>playerID, yearID, votedBy</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>yearID, teamID, lgID, playerID</t>
+  </si>
+  <si>
+    <t>schoolID</t>
+  </si>
+  <si>
+    <t>yearID, round</t>
+  </si>
+  <si>
+    <t>playerID, yearID, stint, teamID, lgID</t>
+  </si>
+  <si>
+    <t>playerID, yearID, stint, teamID, lgID, POS</t>
+  </si>
+  <si>
+    <t>yearID,  teamID, inseason</t>
+  </si>
+  <si>
+    <t>playerID, yearID, teamID, half</t>
+  </si>
+  <si>
+    <t>Changes Made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropped 3 indexes, ensured all columns for pk were not nullable, added PK </t>
   </si>
 </sst>
 </file>
@@ -242,12 +314,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,18 +346,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -548,414 +638,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\evelyn\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB9D04-FEA2-4E5B-81A4-C71245C515E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56D276-A246-48F8-B2E8-56ADBAC02B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="350" yWindow="40" windowWidth="27620" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Table Name</t>
   </si>
@@ -274,12 +274,6 @@
   </si>
   <si>
     <t>playerID, yearID, teamID, half</t>
-  </si>
-  <si>
-    <t>Changes Made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropped 3 indexes, ensured all columns for pk were not nullable, added PK </t>
   </si>
 </sst>
 </file>
@@ -314,24 +308,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,13 +328,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,17 +624,17 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -659,7 +642,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -671,9 +654,7 @@
       <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -696,7 +677,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -713,7 +694,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -747,7 +728,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -764,7 +745,7 @@
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -781,7 +762,7 @@
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -792,16 +773,13 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -835,7 +813,7 @@
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -852,7 +830,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -869,7 +847,7 @@
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -886,7 +864,7 @@
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -903,7 +881,7 @@
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -937,7 +915,7 @@
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -954,7 +932,7 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -971,7 +949,7 @@
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -982,7 +960,7 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -993,7 +971,7 @@
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1010,7 +988,7 @@
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1027,7 +1005,7 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1044,7 +1022,7 @@
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1061,7 +1039,7 @@
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1072,7 +1050,7 @@
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1087,7 +1065,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1081,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1096,7 @@
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1135,7 +1113,7 @@
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\evelyn\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56D276-A246-48F8-B2E8-56ADBAC02B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED0298-8DC6-4614-9EAF-7F6B3EE203A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="40" windowWidth="27620" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5810" yWindow="1260" windowWidth="30330" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relationships" sheetId="1" r:id="rId1"/>
+    <sheet name="Leagues Recognized by SABR" sheetId="2" r:id="rId1"/>
+    <sheet name="Relationships" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Table Name</t>
   </si>
@@ -274,6 +275,84 @@
   </si>
   <si>
     <t>playerID, yearID, teamID, half</t>
+  </si>
+  <si>
+    <t>(1871-1875)</t>
+  </si>
+  <si>
+    <t>(1882-1891)</t>
+  </si>
+  <si>
+    <t>League</t>
+  </si>
+  <si>
+    <t>(1914-1915)</t>
+  </si>
+  <si>
+    <t>(1920–1931)</t>
+  </si>
+  <si>
+    <t>(1923–1928)</t>
+  </si>
+  <si>
+    <t>(1933–1948)</t>
+  </si>
+  <si>
+    <t>(1937–1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Association </t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Association </t>
+  </si>
+  <si>
+    <t>Years active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Association </t>
+  </si>
+  <si>
+    <t>(1890)</t>
+  </si>
+  <si>
+    <t>(1884)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players League </t>
+  </si>
+  <si>
+    <t>Federal League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negro National League I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Colored League </t>
+  </si>
+  <si>
+    <t>(1929)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Negro League  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East-West League </t>
+  </si>
+  <si>
+    <t>(1932)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negro Southern League </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negro National League II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negro American League </t>
+  </si>
+  <si>
+    <t>Negro League barnstorming/independent teams from 1896-1936 included under psuedo-leagues labeled "Eastern Independent Clubs" and "Western Independent Clubs"</t>
   </si>
 </sst>
 </file>
@@ -333,9 +412,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,17 +701,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392092AE-5FA5-4E1E-B98C-345C2E38BF0B}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
@@ -642,7 +856,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -660,7 +874,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -677,7 +891,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -694,7 +908,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -711,7 +925,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -728,7 +942,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -745,7 +959,7 @@
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -762,7 +976,7 @@
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -779,7 +993,7 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -796,7 +1010,7 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -813,7 +1027,7 @@
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -830,7 +1044,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -847,7 +1061,7 @@
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -864,7 +1078,7 @@
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -881,7 +1095,7 @@
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -898,7 +1112,7 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -915,7 +1129,7 @@
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -932,7 +1146,7 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -949,7 +1163,7 @@
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -960,7 +1174,7 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -971,7 +1185,7 @@
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -988,7 +1202,7 @@
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1005,7 +1219,7 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1022,7 +1236,7 @@
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1039,7 +1253,7 @@
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1050,7 +1264,7 @@
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1065,7 +1279,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1295,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1310,7 @@
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1113,7 +1327,7 @@
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
